--- a/finetuning/it_datasets/it_dataset/it_medenine_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_medenine_dataset.xlsx
@@ -650,9 +650,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe Costa located at 8FXP+CVG Cafe Costa, Medenine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Costa/data=!4m7!3m6!1s0x1254d62b06c186e3:0xe4f0676c5ff52610!8m2!3d33.3485585!4d10.4871915!16s%2Fg%2F11bzywm878!19sChIJ44bBBivWVBIRECb1X2xn8OQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Café Costa, located in Medenine (coordinates 33.3497059,10.4863079), offers a cozy ambiance and a 4.3 rating on Google. With 41 reviews, this cafe caters to coffee enthusiasts and is open from 6 AM to midnight every day.</t>
         </is>
       </c>
     </row>
@@ -755,7 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a great place to get some coffee, check out Hallway Coffee Shop located at Hallway Coffee Shop, 8FVQ+RXV Medenine hallway. This top-rated cafe is perfect for coffee lovers and offers a cozy atmosphere to relax and enjoy your drink. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:45-21:00. To get there, use these GPS coordinates: 32.620135, -85.375224. For more details, visit their website at https://www.cafehallway.com/.</t>
+          <t>**Hallway Coffee Shop** (32.620135, -85.375224), located in Hallway Coffee Shop, 8FVQ+RXV Medenine hallway, offers a cozy and welcoming atmosphere for coffee enthusiasts. Serving a wide selection of brews and pastries, the shop is a popular destination for locals and tourists alike. With its convenient location, friendly staff, and 4.1 rating based on 32 reviews, Hallway Coffee Shop is a go-to spot for a caffeine fix or a relaxing break in Medenine.</t>
         </is>
       </c>
     </row>
@@ -858,7 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated Cafe , check out mntzh lfSwl lrb`@, located at mntzh lfSwl lrb`@, C113, Medenine. This must-visit spot has a rating of 4.0 and is open from 07:00-00:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%B2%D9%87+%D8%A7%D9%84%D9%81%D8%B5%D9%88%D9%84+%D8%A7%D9%84%D8%A7%D8%B1%D8%A8%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1254d7c42c7c52cf:0xe14212f0db5b470!8m2!3d33.3369152!4d10.4703814!16s%2Fg%2F11c45p6755!19sChIJz1J8LMTXVBIRcLS1DS8hFA4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 646 887.</t>
+          <t>Located in Medenine, this café offers a cozy ambiance with a rating of 4.0 out of 5 based on 18 reviews. It is open daily from 7:00 AM to midnight and offers a phone number (+216 75 646 887) for further inquiries. Its exact coordinates are (33.3497059, 10.4863079), allowing for easy navigation.</t>
         </is>
       </c>
     </row>
@@ -957,9 +955,11 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out mntzh `Sm jm`@ located at 9GF7+6VG mntzh `Sm jm`@, Medenine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%B2%D9%87+%D8%B9%D8%B5%D8%A7%D9%85+%D8%AC%D9%85%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1255299316233767:0xa2c0a6f25edfc356!8m2!3d33.3730669!4d10.5147063!16s%2Fg%2F11hbqq340q!19sChIJZzcjFpMpVRIRVsPfXvKmwKI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"mntzh `Sm jm`@" is a popular cafe located in Medenine, Tunisia. It offers a variety of services, including:
+- Food and drinks
+- Wi-Fi
+- A comfortable atmosphere
+The cafe is located at the coordinates (33.3497059, 10.4863079) and is open from 7:00 AM to midnight every day.</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a cozy cafe experience, head to Cafe Bonkif located at 9G96+J7Q Cafe Bonkif, Medenine. This popular destination offers a relaxing ambiance for cafe enthusiasts. With a rating of 4.0, it's definitely worth checking out. Cafe Bonkif is open from 5 am to 10 pm daily. For more information, call them at 24 676 569.</t>
+          <t>Cafe Bonkif is a cafe located in Medenine, Tunisia. It is open from 5:00 AM to 10:00 PM and offers a variety of food and drink options. The cafe is known for its friendly staff and comfortable atmosphere. It is also a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a great cup of coffee, head to Monarc Coffee. This top-rated cafe is located at 9G29+FMP Monarc Coffee, P1, Medenine. With a rating of 4.6 out of 5, it's a must-visit spot for coffee lovers. Monarc Coffee is open from 6 AM to midnight every day. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Monarc Coffee is a popular cafe in Medenine, Tunisia. Open from 6am to midnight, this cafe serves a variety of food and drink options that are sure to satisfy any customer. Monarc Coffee is located at 9G29+FMP, P1, with coordinates (33.3497059, 10.4863079), and offers a cozy, relaxed atmosphere with friendly service.</t>
         </is>
       </c>
     </row>
@@ -1260,11 +1260,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Salon de the TonTon located at 8FRQ+WJH Salon de the TonTon, Medenine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.4, it's a must-visit spot.
-To get there, use these GPS coordinates: 51.5759361, -0.1436267. 
-For more details, visit their website at https://www.google.com/maps/place/Salon+de+th%C3%A9+TonTon/data=!4m7!3m6!1s0x1254d7d2767072b9:0x49d22db7a8744096!8m2!3d33.3423145!4d10.4891118!16s%2Fg%2F11h666r53c!19sChIJuXJwdtLXVBIRlkB0qLct0kk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Salon de the TonTon is a cafe located in Salon de the TonTon, Medenine, with coordinates (51.5759361, -0.1436267). It has a rating of 4.4 based on 8 reviews. The cafe offers its services from 07:00 to 23:00 and is closed on no specific days.</t>
         </is>
       </c>
     </row>
@@ -1367,8 +1363,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a top-rated cafe, head to mqh shyf located at 8FWP+X38 mqh~ shyf, mSbH ljrbw`, shr` 
-This cafe offers a range of categories and is perfect for cafe lovers. With a rating of 4.6, it's a must-visit spot. It's open 24 hours a day, so you can enjoy your favorite drink anytime. Get there using these GPS coordinates: 33.3497059, 10.4863079. For more details, visit owner's link.</t>
+          <t>mqh~ shyf is a Cafe located in medenine, Tunisia. It is open 24 hours a day and has a rating of 4.6 on Google Maps based on 7 reviews. It offers a featured image and has a main category of Cafe and a subcategory of Cafe.</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1470,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe La Fiesta located at 9F3X+H79 Cafe La Fiesta, Rue Djerba, Medenine. This top-rated destination is perfect for Salon de the lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-02:00. To get there, use these GPS coordinates: 33.87576, 10.85745. For more details, visit their website at https://www.facebook.com/Caf%C3%A9-la-fiesta-109853241729935/ or call them at 90 096 973.</t>
+          <t>Cafe La Fiesta, located in Medenine, Tunisia (coordinates: 33.87576, 10.85745), is a highly-rated teahouse with a 5-star rating based on 6 reviews. It offers a cozy ambiance for patrons to enjoy a relaxing tea experience. The teahouse is open daily from 6 AM to 2 AM, offering ample time for tea enthusiasts to visit. Despite not having a website or featured image, Cafe La Fiesta's positive reviews highlight the quality of its offerings and its friendly atmosphere.</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1569,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a delightful cafe, check out Cafe Ennassim located at 8FJP+W3X Cafe Ennassim, Medenine. This highly-rated destination is perfect for cafe lovers and offers a relaxing ambiance. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ennassim/data=!4m7!3m6!1s0x1254d63527e8358d:0x8565702f28e8d018!8m2!3d33.3323662!4d10.485223!16s%2Fg%2F11c75sscp1!19sChIJjTXoJzXWVBIRGNDoKC9wZYU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Ennassim is a 4-star rated cafe located in Medenine, Tunisia (33.3497059, 10.4863079). The cafe is open daily from 6:00 AM to 12:00 AM and is known for its great atmosphere and delicious coffee.</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1668,8 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a cozy spot to grab a bite, head to Castello, located at 8FMR+GJR Castello, Medenine. This top-rated cafe is a haven for coffee lovers, offering a warm and inviting atmosphere. With a rating of 4.4 out of 5, it's a must-visit destination. Castello is open daily from 6:00 AM to 8:00 PM. For more details, visit their website or call them at the provided number.</t>
+          <t>Castello is a cozy and inviting cafe located in the heart of Medenine, Tunisia. With its convenient location at coordinates (33.3497059, 10.4863079), Castello is easily accessible to both locals and visitors alike.
+Open from 6:00 AM to 8:00 PM every day of the week, Castello offers a wide range of beverages and snacks to satisfy any craving. Whether you're looking for a morning coffee or an afternoon pick-me-up, Castello has something for you.</t>
         </is>
       </c>
     </row>
@@ -1772,9 +1768,8 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe d'Azur located at 8GV2+GVR Cafe d'Azur, P1. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.3431867, 10.5028133. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+d%27Azur/data=!4m7!3m6!1s0x1254d6239465c575:0x1bb72354eb74375b!8m2!3d33.3438539!4d10.502156!16s%2Fg%2F1hm24v3dl!19sChIJdcVllCPWVBIRWzd061Qjtxs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe d'Azur, nestled in Medenine at 8GV2+GVR, is a renowned cafe that offers a captivating experience. With a superb rating of 4.8, this cafe has garnered the admiration of many visitors.
+Located at coordinates (33.3431867, 10.5028133), Cafe d'Azur invites you to indulge in the vibrant ambiance and delectable offerings. It is open 24 hours a day, providing a convenient haven for those seeking a delightful culinary adventure at any time.</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1868,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great cafe, check out Cafe Bruxelles located at 8FRQ+C5F Cafe Bruxelles, Medenine. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 33.348982266694, 10.485188599175. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bruxelles/data=!4m7!3m6!1s0x1254d752259dd737:0xc10ffff4321ff760!8m2!3d33.3410728!4d10.4879327!16s%2Fg%2F11fl0qqp95!19sChIJN9edJVLXVBIRYPcfMvT_D8E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Bruxelles is a 4.3-rated cafe located in Medenine, Tunisia at the coordinates (33.348982266694, 10.485188599175). It is open from 6:00 AM to 9:00 PM and specializes in cafe fare.</t>
         </is>
       </c>
     </row>
@@ -1976,10 +1971,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a top-rated cafe, check out Cafe Kif located at 9F3H+MPM Cafe Kif, Unnamed Road, Medenine.
-Cafe Kif is a popular destination for cafe lovers, offering a range of options to choose from. 
-With a 4.3-star rating, it's a must-visit spot in Medenine. They're conveniently open 24 hours a day. 
-To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Kif/data=!4m7!3m6!1s0x1255292386a0b901:0x9fd21a0229318373!8m2!3d33.3542123!4d10.4793015!16s%2Fg%2F11qzx9m8yn!19sChIJAbmghiMpVRIRc4MxKQIa0p8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 604 203.</t>
+          <t>Cafe Kif is a highly-rated cafe in Medenine, Tunisia, open 24/7. It offers a cozy environment with a menu that focuses on coffee and tea. Its convenient location and welcoming atmosphere make it a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2070,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated Cafe, check out Cafe Afrique at 8FWR+9M7 medinine. This popular destination offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 33.3458652, 10.4912132. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Afrique/data=!4m7!3m6!1s0x1254d62935583aeb:0x6615e4a5c3015826!8m2!3d33.3459158!4d10.4916846!16s%2Fg%2F11dxky25kf!19sChIJ6zpYNSnWVBIRJlgBw6XkFWY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Afrique, a popular cafe in Medenine located at (33.3458652, 10.4912132), offers a relaxing ambiance with a 5-star rating. Open from 6:00 AM to 11:00 PM, it's a favorite spot for coffee lovers and locals alike, providing a cozy atmosphere for connecting and unwinding.</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2169,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in Medenine and craving a delightful cafe experience, head to Cafe Palm, located at 8FXV+59Q Cafe Palm, Medenine. This highly rated spot boasts a 4.3 rating and is perfect for cafe enthusiasts. With its extended weekday hours from 5:00 AM to 11:00 PM, you can satisfy your cafe cravings at your convenience. For further information, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Palm/data=!4m7!3m6!1s0x1254d628fba3fdbd:0x73366554a2f5f5a9!8m2!3d33.347959!4d10.4934953!16s%2Fg%2F11gg64x3s_!19sChIJvf2j-yjWVBIRqfX1olRlNnM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Palm, located at Medenine (33.3497059, 10.4863079), is a cozy cafe offering a variety of coffee and tea selections. Its convenient hours from 5 AM to 11 PM cater to early risers and late-night owls. With a 4.3-star rating based on 3 reviews, Cafe Palm is highly recommended among locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2264,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe why not. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's located at 8FQC+FMP Cafe why not, C113, Medenine and open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+why+not/data=!4m7!3m6!1s0x1254d7e3342cdf57:0xfeda23bd4d15716!8m2!3d33.3387096!4d10.4717031!16s%2Fg%2F11txrnbj76!19sChIJV98sNOPXVBIRFlfR1Dui7Q8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Café Why Not is a highly-rated café located in Medenine, Tunisia, offering a cozy and inviting ambiance. With five stars from two reviews, it's an ideal spot for locals and visitors to savor delicious coffee and delectable treats.</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2367,8 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great cafe experience, check out Cafe bravia located at 8FXV+QVX Cafe bravia, C108. This top-rated destination is a must-visit spot for Cafe lovers. With a perfect rating of 5.0, it's open daily from 06:00-22:00. To get there, you can use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>**Café Bravia:**
+Located in Medenine (33.3497059, 10.4863079), Café Bravia is a cozy spot to relax and enjoy a cup of coffee. Its convenient hours (6 AM - 10 PM) make it an ideal place for a morning pick-me-up or an evening treat. With a 5.0 rating and positive reviews, Café Bravia is highly recommended for coffee enthusiasts looking for a warm and inviting atmosphere.</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2459,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in Medenine, cafe le coin is a must-visit spot for Cafe lovers. Located at 8FWJ+3HG cafe le coin, C113, Medenine, it's rated 4.0 out of 5. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Café le coin is a cafe located at 8FWJ+3HG cafe le coin, C113, Medenine. Its main category is Cafe and it has a rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2550,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out mqh~ lrwsy located at 8FP9+888 mqh~ lrwsy, C113, Medenine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%B1%D9%88%D8%A7%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1254d7a86aa80ce1:0x2f1b03efe077d00c!8m2!3d33.3352225!4d10.4677619!16s%2Fg%2F11txqh05j1!19sChIJ4QyoaqjXVBIRDNB34O8DGy8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>mqh~ lrwsy is a cafe located in Médénine, Tunisia. It's rated 5.0 out of 5 stars based on one review. The cafe's exact location is 8FP9+888.</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2657,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Caffe ezzitouna located at G424+P9F Caffe ezzitouna, Rue de Medenine, Zarzis. This top-rated destination is perfect for Cafe lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.50398, 11.11215. For more details, visit their website at https://lotfiboussorra.wordpress.com/ or call them at 98 518 062.</t>
+          <t>Caffe ezzitouna is a cafe located in Rue de Medenine, Zarzis, Tunisia. It has a rating of 4.7 and is open from 6am to midnight. Caffe ezzitouna offers a variety of coffee drinks, pastries, and snacks. It is also a popular spot for locals to gather and socialize.</t>
         </is>
       </c>
     </row>
@@ -2767,10 +2760,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you find yourself in medenine and seeking a delightful culinary experience, venture to Les delices de safia, conveniently located at F3R8+HCM Hicham route medenine, Zarzis 4120. 
-This top-rated restaurant boasts a remarkable rating of 5.0, making it a must-visit destination for food enthusiasts. Les delices de safia specializes in mouthwatering dishes, catering to the discerning palates of diners. 
-Open 24 hours a day, you can indulge in their culinary creations at your convenience. For any inquiries or to make reservations, you can reach them at 97 100 484. 
-For further details, explore their featured image at https://lh5.googleusercontent.com/p/AF1QipN1_L4NpWR8JoGbzUVPQKaJmnTwKpv2rge2lEjP=w408-h544-k-no or visit their official website at https://www.google.com/maps/place/Les+delices+de+safia/data=!4m7!3m6!1s0x13aae90eef7a575f:0x60269bc26de9e247!8m2!3d33.4914677!4d11.0660418!16s%2Fg%2F11q84jw9sv!19sChIJX1d67w7pqhMRR-LpbcKbJmA?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Les Delices de Safia is a 5-star restaurant located at the foolowing address : F3R8+HCM Les delices de safia, Hicham route medenine, Zarzis 4120. Situated at the coordinates (33.8686268, 10.7832941), it is open 24/7 and offers a wide variety of dishes to satisfy all tastes. With a cozy and welcoming atmosphere, Les Delices de Safia is the perfect place to enjoy a delicious meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2859,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a place to stay, Maison d'hotes La Cuesta Medenine is a top-rated destination. It's located at ndeg 3 Rue Ibn Battouta, Medenine 4100 and offers a range of categories to choose from, including Residence hoteliere and Maison d'hotes. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website at https://www.google.com/maps/place/Maison+d%27h%C3%B4tes+La+Cuesta+Medenine/data=!4m10!3m9!1s0x1254d7047e8e8adf:0x98b1da39f19f0492!5m2!4m1!1i2!8m2!3d33.3370058!4d10.4923823!16s%2Fg%2F11g4ds4fjs!19sChIJ34qOfgTXVBIRkgSf8TnasZg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 059 845.</t>
+          <t>Fancy a stay in Medenine? Then, the Maison d'hotes La Cuesta Medenine is a must-see. This hotel has a rating of 4.7 after 31 reviews. Its main categories are "hotel residence" and "guest house". Located at this address : Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100, this hotel offers many activities. For more information, you can call this number : 96 059 845.</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2958,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated Residence hoteliere, check out Maison d'hotes La Cuesta Medenine located at Maison d'hotes La Cuesta Medenine, ndeg 3 Rue Ibn Battouta, Medenine 4100. This popular destination offers a range of categories including Residence hoteliere and Maison d'hotes. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website or call them at 96 059 845.</t>
+          <t>Maison d'hotes La Cuesta Medenine is a residence located in Medenine, Tunisia at the coordinates (33.2333991, 10.4543042). It is a 4.7-star rated residence that offers 31 rooms to its guests. The residence has a garden, and offers a clean and comfortable stay to its guests.</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3057,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated mT`m restaurant, check out Restaurant fruit de mer located at 8FVQ+7MQ Restaurant fruit de mer, Medenine. This must-visit spot offers a range of mT`m categories to choose from. With a rating of 4.0, it's open during these hours: 6S-1m, but closed on ljm`@. To get there, use these GPS coordinates: 33.5464595, -7.576255. For more details, visit their website at https://www.google.com/maps/place/Restaurant+fruit+de+mer/@33.3432084,10.4892486,17z/data=!3m1!4b1!4m6!3m5!1s0x1254d77d135da985:0x7a4b406ab9c24872!8m2!3d33.3432084!4d10.4892486!16s%2Fg%2F11f7khmq0d?authuser=0&amp;entry=ttu or call them at 53 348 364.</t>
+          <t>Restaurant fruit de mer is a seafood restaurant located in Medenine, Tunisia. It is open 6 days a week, from 6 am to 1 pm, and closed on Mondays. The restaurant has a rating of 4 stars on Google, based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3152,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Musee des coutumes et traditions de la ville de Medenine located at 8FWR+XJF Musee des coutumes et traditions de la ville de Medenine, Unnamed Road, Medenine. This top-rated destination is perfect for Musee d'histoire locale lovers and offers a range of Musee d'histoire locale to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+des+coutumes+et+traditions+de+la+ville+de+M%C3%A9denine/data=!4m7!3m6!1s0x1254d729937e998b:0xb2580a1e22580e4f!8m2!3d33.3474331!4d10.4915598!16s%2Fg%2F11f3n381b9!19sChIJi5l-kynXVBIRTw5YIh4KWLI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Immerse yourself in the rich heritage and traditions of Medenine at the "Musee des coutumes et traditions de la ville de Medenine." Located at (33.3497059, 10.4863079), this museum proudly showcases the city's cultural history through captivating exhibits and collections. Visitors can expect a truly unforgettable experience as they delve into the depths of Medenine's local lore.</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3235,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out jm` lfrdws located at 8GJ4+4HV jm` lfrdws, Medenine. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D8%AC%D8%A7%D9%85%D8%B9+%D8%A7%D9%84%D9%81%D8%B1%D8%AF%D9%88%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x1254d7ed63af82ed:0xa4025a2540174398!8m2!3d33.3303683!4d10.5064119!16s%2Fg%2F11ssfxmhbb!19sChIJ7YKvY-3XVBIRmEMXQCVaAqQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>jm` lfrdws, a museum located in Medenine (33.3303683, 10.5064119), offers an immersive cultural experience. With a 5-star rating based on reviews, it's a popular attraction for visitors seeking historical and cultural insights.</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3338,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated restaurant, check out Dar Dhiafa Medenine located at 8GXF+MPQ Dar Dhiafa Medenine, Medenine. This destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Dar+Dhiafa+Medenine/data=!4m7!3m6!1s0x125529fe05e6a259:0x4affd5da440fb34c!8m2!3d33.349218!4d10.5243652!16s%2Fg%2F11cs6kt9yf!19sChIJWaLmBf4pVRIRTLMPRNrV_0o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 680 673.</t>
+          <t>Dar Dhiafa Medenine is a highly rated restaurant located in Medenine, boasting 4.2 stars from 449 reviews. This family-friendly establishment offers a wide range of grilled dishes, prioritizing hygiene and a comfortable atmosphere. With its spacious dining area and dedicated play area for children, it's an ideal destination for families seeking a relaxing dining experience. Situated at the coordinates (33.3497059, 10.4863079), this restaurant awaits your visit for an enjoyable meal.</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3445,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great place to eat, check out cheesy located at 9G29+6RR cheesy, P1, Medenine. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Pizzeria to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://instagram.com/cheesy.md%3Futm_medium%3Dcopy_link or call them at 98 157 475.</t>
+          <t>Cheesy is a restaurant located in Medenine (33.3497059, 10.4863079). This place has a rating of 4.1 out of 5 based on 64 reviews. The main category is Restaurant and the other categories are Pizzeria. The hours of operation are from 11:00-00:00 and it is closed on []. The phone number is 98 157 475. The website is https://instagram.com/cheesy.md%3Futm_medium%3Dcopy_link.</t>
         </is>
       </c>
     </row>
@@ -3558,9 +3548,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Hallway Coffee Shop located at Hallway Coffee Shop, 8FVQ+RXV Medenine hallway. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:45-21:00. To get there, use these GPS coordinates: 32.620135, -85.375224. For more details, visit their website at https://www.cafehallway.com/</t>
+          <t>Hallway Coffee Shop is a popular cafe located at Hallway Coffee Shop, 8FVQ+RXV Medenine hallway with the coordinates of (32.620135, -85.375224). It opens daily from 6:45 AM to 9:00 PM and has received a rating of 4.1 based on 32 customer reviews.</t>
         </is>
       </c>
     </row>
@@ -3663,11 +3651,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Rachid &amp; Sophie located at 9H52+PM5. 
-This top-rated destination is perfect for Restaurant familial lovers and offers a range of Restaurant familial to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 12:00-22:00, but closed on monday. 
-To get there, use these GPS coordinates: 18.7912352, -11.6868658. 
-For more details, visit their website at https://www.google.com/maps/place/Rachid+%26+Sophie/data=!4m7!3m6!1s0x12552b4be49d8c39:0x5b314fe0cbd6a127!8m2!3d33.3592737!4d10.551729!16s%2Fg%2F11lkgn0myk!19sChIJOYyd5EsrVRIRJ6HWy-BPMVs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 946 915.</t>
+          <t>Rachid &amp; Sophie is a family restaurant located in Medenine, Tunisia (18.7912352, -11.6868658). With a 4.9 rating based on 28 reviews, it has a great reputation among locals and visitors alike. It's open daily from 12 pm to 10 pm, except on Mondays. Customers appreciate the restaurant's anecdotes, which create a unique and memorable dining experience.</t>
         </is>
       </c>
     </row>
@@ -3770,9 +3754,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a Restaurant, check out Dar el Hout - dr lHwt located at 8FMP+7XP Dar el Hout - dr lHwt, Medenine 4100. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website at https://www.facebook.com/pg/Dar-el-Hout-%25D8%25AF%25D8%25A7%25D8%25B1-%25D8%25A7%25D9%2584%25D8%25AD%25D9%2588%25D8%25AA-109172293953428/ or call them at 52 588 298.</t>
+          <t>Dar el Hout is a restaurant located at 33.2333991 - 10.4543042 in Dar el Hout, Medenine 4100. It serves a variety of cuisines and has 20 reviews. It is open daily sometime, but it is recommended to call 52 588 298 in advance to confirm.  It's offers are nan.</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3857,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out mntzh lfSwl lrb`@ located at mntzh lfSwl lrb`@, C113, Medenine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at  or call them at 75 646 887.</t>
+          <t>In the heart of Medenine, mntzh lfSwl lrb`@ is a must-visit cafe. Located at (33.3497059, 10.4863079), it offers a cozy and welcoming atmosphere. With a rating of 4.0 based on 18 reviews, this cafe is known for its delicious coffee, friendly service, and great location.</t>
         </is>
       </c>
     </row>
@@ -3974,10 +3956,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Macdoner located at 8FRQ+WMV Macdoner. 
-This top-rated destination is perfect for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.3497059, 10.4863079. 
-For more details, visit their featured image at https://lh5.googleusercontent.com/p/AF1QipMXsTLjJAbiWnZVobpdTN6LFo-QTe-ihz-FEi6g=w408-h299-k-no or call them at 50 075 617.</t>
+          <t>Located in Medenine, Macdoner is a highly-rated restaurant with an impressive 4.5-star rating out of 15 reviews. Its exact coordinates are (33.3497059, 10.4863079) and is conveniently situated at 8FRQ+WMV Macdoner. With a specialization in dining, Macdoner caters to food enthusiasts looking for a delectable culinary experience.</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4059,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Restaurant ralliement located at 8FXV+VW4 Restaurant ralliement, Medenine 4100. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website at https://www.facebook.com/Restaurant-Caf%25C3%25A9-ralliement-101080675532473.</t>
+          <t>Restaurant Ralliement is a restaurant located in Medenine, Tunisia. It has a 4.0 rating on Google, with 14 reviews. It offers a variety of dishes, and is open from 07:00-22:00. The restaurant's coordinates are (33.2333991, 10.4543042).</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4162,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a great spot to grab some tasty food, consider Le Soixante-Quinze Fricasse et Sandwich, located at 8FVQ+4XW Medenine. This top-rated fast food joint has a 4.0 rating and offers a range of delicious options to choose from. It's open daily from 09:00-22:00, so you can satisfy your cravings anytime. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Le+Soixante-Quinze+Fricass%C3%A9+et+Sandwich/data=!4m7!3m6!1s0x1254d79ea3a74e51:0x5749d502bec0afd2!8m2!3d33.3428604!4d10.4899599!16s%2Fg%2F11j4wvzh0h!19sChIJUU6no57XVBIR0q_AvgLVSVc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 780 041.</t>
+          <t>位于突尼斯Medenine的这家快餐店Le Soixante-Quinze Fricasse et Sandwich以其美味的三明治而闻名。其地理位置便捷，位于(33.3497059, 10.4863079)，营业时间为上午9点至晚上10点。</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4265,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Creperie Nutella located at 8FVQ+7Q5 Creperie Nutella. This top-rated destination is perfect for Creperie lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.facebook.com/creperienutella.officiel/ or call them at 24 404 005.</t>
+          <t>The Creperie Nutella is a popular crepe restaurant located in Medenine, Tunisia with coordinates (33.3497059, 10.4863079). With a rating of 4.3 stars and 12 reviews, this creperie has become a favorite spot for locals and tourists alike. The Creperie Nutella offers a variety of delicious crepes, including sweet and savory options, and is renowned for its high-quality ingredients and friendly service. Its convenient location and reasonable prices make it a great option for a quick and satisfying meal. For more information and to see recent reviews, visit their official website or Facebook page.</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4368,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Pizzeria la mama mednine located at Avenue habib bourguiba, Medenine 4100. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria and Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-01:00, but closed on []. To get there, use these GPS coordinates: 33.347606220716, 10.488111887759. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+la+mama+mednine/data=!4m7!3m6!1s0x1254d7c8bc3068e1:0x9c9c14e8966c7897!8m2!3d33.3470535!4d10.4883059!16s%2Fg%2F11h1m56kt9!19sChIJ4WgwvMjXVBIRl3hslugUnJw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 691 142.</t>
+          <t>Pizzeria La Mama Mednine is located in the city of Medenine, Tunisia. It is a pizzeria that offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Avenue Habib Bourguiba. It is situated at the coordinates (33.347606220716, 10.488111887759).</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4471,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe Bonkif located at 9G96+J7Q Cafe Bonkif, Medenine. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their link at https://www.google.com/maps/place/Cafe+Bonkif/data=!4m7!3m6!1s0x125529eba7a3feff:0xad1cb8f12eff5622!8m2!3d33.369084!4d10.5107487!16s%2Fg%2F11c2kdrwf3!19sChIJ__6jp-spVRIRIlb_LvG4HK0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 676 569.</t>
+          <t>Cafe Bonkif is a popular cafe located at 9G96+J7Q Medenine, Tunisia. It offers a cozy and inviting atmosphere with a menu featuring a variety of coffee drinks, snacks, and light meals. The cafe is conveniently located with coordinates (33.3497059, 10.4863079) and provides a great place to relax, socialize, or get some work done.</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4570,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great cafe, check out Cafe de Lac Medenine located at 9GJ8+GP3 cafe de lac medenine, Hy ljndly, Tryq jrb@, Medenine 4100. This top-rated destination is perfect for cafe lovers and offers a range of cafe items to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:30-00:00, but closed on none. To get there, use these GPS coordinates: 33.2333991, 10.4543042.</t>
+          <t>Cafe de Lac Medenine is a 4.4-rated cafe located in Medenine, offering a cozy ambiance for patrons seeking a respite from the bustling city. Situated at the coordinates (33.2333991, 10.4543042), the cafe boasts a convenient location that makes it easily accessible to both locals and visitors alike. Its main category is Cafe, and it operates from 5:30 AM to midnight every day of the week, with no designated closed days.</t>
         </is>
       </c>
     </row>
@@ -4690,7 +4669,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you happen to be in medenine and looking for a nice restaurant, don't hesitate to visit strH@ `jyl located at 9G84+W8C strH@ `jyl, P1, Medenine. This restaurant has received a rating of 4.0 based on 8 reviews, making it a popular spot among locals and tourists alike. While their website and working hours are not available, you can contact them at 56 780 041 for more information.</t>
+          <t>strH@ `jyl is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 9G84+W8C strH@ `jyl, P1, Medenine, and can be contacted at 56 780 041. Its coordinates are (33.3497059, 10.4863079).</t>
         </is>
       </c>
     </row>
@@ -4789,9 +4768,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great cafe, check out Monarc Coffee located at 9G29+FMP Monarc Coffee, P1. 
-This top-rated destination is perfect for coffee lovers and offers a range of drinks to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Monarc Coffee, a 4.6-rated cafe in Medenine, Tunisia, offers a cozy ambiance for coffee enthusiasts. Located at 33.3497059, 10.4863079, the cafe serves its customers from 6 AM to midnight daily. With glowing reviews, Monarc Coffee is worth a visit for coffee lovers seeking a respite in the heart of Medenine.</t>
         </is>
       </c>
     </row>
@@ -4894,7 +4871,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a great place to eat, check out KIFSET located at 4100 En face monoprix, Medenine. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website or call them at 25 850 940.</t>
+          <t>KIFSET is a highly-rated restaurant located at 4100 En face monoprix, Medenine, Tunisia, with coordinates (33.2333991, 10.4543042). The restaurant opens daily from 6:00 AM to midnight and has an impressive rating of 4.5 based on 6 reviews. KIFSET offers a dining experience that has been praised by its patrons, making it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -4993,9 +4970,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in medenine and craving some quick bites, head to Fricasse El ghomrassni - fryksy lGmrsny at 8FXQ+34X, Medenine. 
-This highly-rated spot serves up delicious fast food options and has a rating of 4.5. 
-It's open from 06:00-20:00, but closed on Mondays. For more details, check out their website at https://www.google.com/maps/place/Fricass%C3%A9+El+ghomrassni+-+%D9%81%D8%B1%D9%8A%D9%83%D8%A7%D8%B3%D9%8A+%D8%A7%D9%84%D8%BA%D9%85%D8%B1%D8%A7%D8%B3%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1254d776fbddf1eb:0xa40ea9847b59bd8a!8m2!3d33.3477424!4d10.4878604!16s%2Fg%2F11f5kxblpd!19sChIJ6_Hd-3bXVBIRir1Ze4SpDqQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Fricasse El ghomrassni - fryksy lGmrsny is a fast food restaurant located in Medenine, Tunisia. It is open daily from 6am to 8pm, except for Mondays. The restaurant serves a variety of dishes, including sandwiches, burgers, and salads. It's also popular for its falafel and other Tunisian dishes. Fricasse El ghomrassni - fryksy lGmrsny is a popular spot for both locals and tourists alike. It's known for its delicious food, friendly service, and convenient location.</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5057,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Castella located at 8FXV+4FW Castella, C108. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates:. For more details, visit their website at or call them at .</t>
+          <t>Castella is a highly-rated restaurant located in Castella, Tunisia, with a 4.8-star rating based on 5 reviews. The restaurant is known for its delicious food and excellent service. If you're looking for a great place to eat in medenine, Castella is definitely worth checking out.</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5156,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out TONTON Glace located at 8FRQ+P94 TONTON Glace, P19, Medenine. This top-rated destination is perfect for Restaurant de sundae lovers and offers a range of options to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-02:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/TONTON+Glace/data=!4m7!3m6!1s0x1254d7ba5aca4d07:0x434f5215c522b9f4!8m2!3d33.3417553!4d10.4884632!16s%2Fg%2F11ryrf5xqt!19sChIJB03KWrrXVBIR9LkixRVST0M?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>TONTON Glace is a renowned sundae restaurant located in Medenine, Tunisia. It is highly rated by customers, earning 4.2 stars from 5 reviews. The restaurant is well-known for its delicious sundaes and offers a wide variety of flavors to choose from. It is open from 9:00 AM to 2:00 AM daily, making it a convenient spot to satisfy your sweet cravings at any time. With its convenient location and delectable offerings, TONTON Glace is the perfect destination for sundae lovers in Medenine.</t>
         </is>
       </c>
     </row>
@@ -5280,9 +5255,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated restaurant, check out Poulet d'or located at 8FVQ+FX9 Poulet d'or, Medenine. 
-This highly-rated destination offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Poulet+d%27or/data=!4m7!3m6!1s0x1254d726c80fbbdd:0xf41c21c4e922937d!8m2!3d33.3436714!4d10.4899824!16s%2Fg%2F11fvgxz8k5!19sChIJ3bsPyCbXVBIRfZMi6cQhHPQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 533 372.</t>
+          <t>Poulet d'Or, located in Medenine at the coordinates (33.3497059, 10.4863079), is a highly rated restaurant with an average rating of 5.0 based on 5 reviews. While detailed information about its menu and offerings is not provided, its category is listed as "Restaurant".</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5350,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Mek D'hel located at 47 Avenue Habib Bourguiba Sud, Medenine. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-23:30. To get there, use these GPS coordinates: 33.352469076524, 10.482030002009.</t>
+          <t>Mek D'hel, located at 47 Avenue Habib Bourguiba Sud, Medenine (GPS: 33.352469076524, 10.482030002009) is a highly-rated restaurant with 4.8 stars out of 4 reviews. Mek D'hel offers a great dining experience in the medenine area.</t>
         </is>
       </c>
     </row>
@@ -5476,9 +5449,8 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Restaurant terrasse khairi located at 8FWX+4P4 Restaurant terrasse khairi, P1, Medenine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, call them at 58 924 647.</t>
+          <t>Restaurant terrasse khairi is a restaurant located in Medenine, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is situated in a convenient location, just off the main road. It has a pleasant ambiance and the staff is friendly and attentive. The prices are reasonable and the food is delicious. Overall, Restaurant terrasse khairi is a great place to dine.
+33.3497059, 10.4863079</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5541,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out dr Dyf@ located at 8GXF+MPP dr Dyf@, Medenine. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%B6%D9%8A%D8%A7%D9%81%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1255291543dbdd33:0xcf808c715355441a!8m2!3d33.349621!4d10.5242432!16s%2Fg%2F11tp5w27jm!19sChIJM93bQxUpVRIRGkRVU3GMgM8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Dr Dyf@ is a restaurant located in Medenine, Tunisia (33.3497059, 10.4863079), with a 4.0 rating.</t>
         </is>
       </c>
     </row>
@@ -5672,7 +5644,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Pizza pino located at 8FVW+8PP Pizza pino, P1, Medenine. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Pizza+pino/data=!4m7!3m6!1s0x1254d748b21f8269:0x22f8c66bf484af94!8m2!3d33.3433495!4d10.4968184!16s%2Fg%2F11qnfgvz9y!19sChIJaYIfskjXVBIRlK-E9GvG-CI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 045 290.</t>
+          <t>Pizza Pino, located in Medenine, Tunisia, is a highly recommended pizzeria renowned for its exceptional flavors. Open from 12:00 pm to midnight, the restaurant serves delicious pizzas that have earned it rave reviews and a 5.0 rating. Pizza Pino is conveniently located at 8FVW+8PP, offering easy accessibility for locals and visitors alike. With its inviting atmosphere and delectable pizzas, Pizza Pino is the perfect destination for a satisfying dining experience in the heart of Medenine.</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5743,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe Palm located at 8FXV+59Q Cafe Palm, Medenine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-23:00, but closed on []. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Cafe Palm is a 4.3-star rated cafe located in Medenine, Tunisia at 8FXV+59Q (coordinates: 33.3497059, 10.4863079). It is open from 5am to 11pm and offers a variety of cafe-style food and drinks.</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5846,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Cafe Kif located at 9F3H+MPM Cafe Kif, Unnamed Road, Medenine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Kif/data=!4m7!3m6!1s0x1255292386a0b901:0x9fd21a0229318373!8m2!3d33.3542123!4d10.4793015!16s%2Fg%2F11qzx9m8yn!19sChIJAbmghiMpVRIRc4MxKQIa0p8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 604 203.</t>
+          <t>Cafe Kif is a cafe located in Medenine, Tunisia. It's located at 33.3497059, 10.4863079 and offers 24/7 service.</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5945,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in Medenine, Cafe Afrique at 8FWR+9M7 Cafe Afrique is a must-visit spot for Cafe lovers. Rated 5.0, it's open from 06:00-23:00 and offers a range of Cafe options. Use the GPS coordinates (33.3458652, 10.4912132) to get there.</t>
+          <t>Cafe Afrique is a highly-rated cafe situated at 8FWR+9M7, Medenine, Tunisia. It operates from 06:00 to 23:00, with a rating of 5 out of 5 based on 3 reviews. The cafe features an inviting atmosphere and a diverse menu, making it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6048,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated dining experience, head to Restaurant Chez Sadok at 8FWV+R55 Restaurant Chez Sadok, C108, Medenine. It's a must-visit spot for Restaurant lovers, offering a delicious menu to choose from. With a 5.0 rating, it's a great choice for a memorable meal. The restaurant is open from 10:00-00:00 during the week. For more information, call them at 21 049 851.</t>
+          <t>Restaurant Chez Sadok, located in Medenine, Tunisia (33.349706, 10.486308), offers a delightful dining experience with a 5-star rating. This restaurant specializes in Restaurant cuisines and is open from 10:00 AM to 00:00 AM, providing ample time to savor its culinary delights.</t>
         </is>
       </c>
     </row>
@@ -6171,9 +6143,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Restaurant El Ghomrassni (patisserie le mois de ramadan) located at 8FPP+Q78 Restaurant El Ghomrassni (patisserie le mois de ramadan), P19. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Restaurant+El+Ghomrassni+%28p%C3%A2tisserie+le+mois+de+ramadan%29/data=!4m7!3m6!1s0x1254d7b20955f17f:0xc4b13f4d7d1664e9!8m2!3d33.3369025!4d10.4857057!16s%2Fg%2F11h7f_qhys!19sChIJf_FVCbLXVBIR6WQWfU0_scQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant El Ghomrassni, located in Medenine (33.3497059, 10.4863079), is a fast food restaurant with a 4.5 stars rating. It offers a variety of dishes to satisfy your cravings.</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6242,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a top-rated dining experience, consider visiting Restaurant fruit de mer. Located at 8FVQ+7MQ, this establishment is a haven for Restaurant enthusiasts. With a solid rating of 4.0, it's a must-visit spot for those seeking a memorable culinary adventure. Restaurant fruit de mer is open during these hours: 06:00-13:00, but remains closed on Fridays. To get there, use these GPS coordinates: 33.5464595, -7.576255. For more details, you can reach them at 53 348 364.</t>
+          <t>Restaurant fruit de mer is a restaurant in Medenine, Tunisia, near the city center. It offers seafood dishes and has received 4.0 ratings from 2 reviews. It is open from 06:00 to 13:00 every day except on Fridays. The restaurant's coordinates are (33.5464595, -7.576255).</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6337,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for something fun to do, check out 82 Sandwich &amp; malfouf. This top-rated Sandwicherie is located at 8FVR+6VP 82 Sandwich &amp; malfouf, P1, Medenine.  With a rating of 5.0, it's a must-visit spot.</t>
+          <t>82 Sandwich &amp; malfouf is a sandwich shop located in Medenine, Tunisia. It is rated 5.0 stars on Google and offers a variety of sandwiches and malfouf. The shop is located at 8FVR+6VP, P1, Medenine.</t>
         </is>
       </c>
     </row>
@@ -6462,7 +6432,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated restaurant, check out lmT`m ljm`y bmdnyn located at 8FQ9+8XX lmT`m ljm`y bmdnyn. With a rating of 5.0, it's a must-visit spot for Restaurant lovers. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>**lmT`m ljm`y bmdnyn** is a restaurant located in Medenine. It's famous for its quality service and delicious dishes. The restaurant has got 5.0 stars rating on Google with 1 review. Its location is 33.3497059° N, 10.4863079° E.</t>
         </is>
       </c>
     </row>
@@ -6565,9 +6535,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Pizzeria bella roma located at Pizzeria bella roma, Medenine. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 50.045997, 8.240099. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+bella+roma/data=!4m7!3m6!1s0x1255297ed6a710c1:0xe5b361301a845376!8m2!3d33.3529499!4d10.4866645!16s%2Fg%2F11r6mh4vzf!19sChIJwRCn1n4pVRIRdlOEGjBhs-U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 097 789.</t>
+          <t>Pizzeria Bella Roma is a pizzeria located in Medenine, Tunisia. It offers a variety of pizzas and has a rating of 5.0. The pizzeria is open from 12:00-22:00, and is closed on Sundays. Pizzeria Bella Roma is located at (50.045997, 8.240099).</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6634,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a great dining experience, look no further than Brik Amy ALI, located at Medenine. This top-rated restaurant is perfect for food lovers and offers a range of dishes in the Restaurant category. With a rating of 5.0, it's a must-visit spot. Brik Amy ALI is open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Brik Amy ALI is a renowned restaurant located in Medenine, Tunisia, at the coordinates (33.3497059, 10.4863079). It specializes in offering a delectable dining experience, with a diverse menu catering to various tastes. The restaurant opens its doors at 11:00 and continues to serve until 00:00, providing ample time for customers to savor its culinary delights. Its prime location makes it easily accessible, inviting food enthusiasts to indulge in its delectable cuisine.</t>
         </is>
       </c>
     </row>
@@ -6765,9 +6733,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a great restaurant, check out Mowgli Burger located at Route de Medenine, Zarzis. 
-This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.50398, 11.11215. For more details, visit their website at  or call them at +33 7 52 22 98 03.</t>
+          <t>Mowgli Burger, located on the Route de Medenine in Zarzis, is a highly-rated restaurant with a 5.0 rating. It serves delicious burgers and has a friendly atmosphere. The restaurant is open from Monday to Sunday from 11:00 AM to 11:00 PM. You can reach them at +33 7 52 22 98 03 for more information or to make a reservation.</t>
         </is>
       </c>
     </row>
@@ -6870,9 +6836,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out WY PIZZA located at Route de Medenine, Km 3 5 4170, Zarzis. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipOt3A1jSz0Ixe3Fuh_hQ_Lys5kPG9aagc3S0rcO=w408-h725-k-no or call them at 53 609 323.</t>
+          <t>WY PIZZA, located in Zarzis, Tunisia, is a highly rated pizzeria that has received 8 reviews with an average rating of 4.3. With a convenient location on Route de Medenine, Km 3 5 4170, it is easily accessible to both locals and tourists. The pizzeria is known for its delicious pizzas, prepared with fresh ingredients and a variety of toppings to choose from. It is a great place to enjoy a meal with friends or family, with a cozy and welcoming ambiance.</t>
         </is>
       </c>
     </row>
@@ -6975,7 +6939,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a top-rated restaurant, Les delices de safia located at F3R8+HCM Les delices de safia, Hicham route medenine, Zarzis 4120 is the perfect destination. With a rating of 5.0, this restaurant is open 24 hours a day and offers a range of categories to choose from. To get there, use these GPS coordinates: 33.8686268, 10.7832941. For more details, visit their website at https://www.google.com/maps/place/Les+delices+de+safia/data=!4m7!3m6!1s0x13aae90eef7a575f:0x60269bc26de9e247!8m2!3d33.4914677!4d11.0660418!16s%2Fg%2F11q84jw9sv!19sChIJX1d67w7pqhMRR-LpbcKbJmA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 100 484.</t>
+          <t>Les Délices de Safia is a restaurant located in Zarzis, Tunisia, offering a wide range of culinary delights. Situated at the coordinates (33.8686268, 10.7832941), this eatery is open 24 hours a day, making it a convenient choice for those seeking a late-night bite. With an impressive rating of 5.0, it has received positive reviews from satisfied customers, showcasing its commitment to quality and exceptional service. Whether you're looking for a quick meal or a memorable dining experience, Les Délices de Safia is an excellent choice.</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7042,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out SRT MEDENINE located at Avenue 18 janvier 1952, Medenine 4100. This top-rated destination is perfect for Societe de transport en bus et autocar lovers and offers a range of Societe de transport en bus et autocar to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website at https://srtm.tn/ or call them at 75 640 070.</t>
+          <t>SRT MEDENINE is a bus and coach transport company located in medenine, Tunisia. It offers a range of services to meet the needs of its customers, including public transportation, private charters, and package tours. The company is committed to providing safe, reliable, and comfortable transportation services. Its buses are equipped with modern amenities to make your journey as pleasant as possible, and its drivers are experienced professionals who will get you to your destination safely and on time. SRT MEDENINE is also committed to sustainability, and its buses are designed to minimize environmental impact.</t>
         </is>
       </c>
     </row>
@@ -7181,9 +7145,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a reliable transportation service, check out SRT MEDENINE located at Avenue 18 janvier 1952, Medenine 4100. 
-This top-rated destination is perfect for those seeking a reputable bus and coach transport company and offers various services to choose from.
-With a rating of 3.9, it's a must-visit spot for your transportation needs. To get there, use the GPS coordinates: 33.2333991, 10.4543042. For more details, visit their website at https://srtm.tn/ or call them at 75 640 070.</t>
+          <t>SRT MEDENINE is a bus and coach transport company located at Avenue 18 janvier 1952, Medenine 4100, Tunisia. Featuring a 3.9-star rating from 20 reviews, SRT MEDENINE offers various transportation services to meet your travel needs. With its convenient location at (33.2333991, 10.4543042), you can easily access their services.</t>
         </is>
       </c>
     </row>
@@ -7274,7 +7236,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a reliable Arret de bus, consider Gare des louages de Medenine situated at Gare des louages de Medenine, Medenine. With a commendable rating of 3.3, this popular destination is an ideal choice for Arret de bus enthusiasts. For more details, visit their website at https://www.google.com/maps/place/Gare+des+louages+de+Medenine/data=!4m7!3m6!1s0x1254d629598bbe8f:0x108bbe847779605b!8m2!3d33.3464316!4d10.4908903!16s%2Fg%2F11rrz584d!19sChIJj76LWSnWVBIRW2B5d4S-ixA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the number provided.</t>
+          <t>The Gare des louages de Medenine is a bus stop located in Medenine, Tunisia. It is situated at coordinates (33.3464606, 10.49031) and offers transportation services to various destinations. The bus stop is owned by Gare des louages de Medenine (proprietaire) and has received a 3.3 rating based on 12 reviews.</t>
         </is>
       </c>
     </row>
@@ -7369,9 +7331,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Gare routiere de Medenine located at Gare routiere de Medenine. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of categories to choose from. 
-With a rating of 2.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.3604811, 10.4686472.</t>
+          <t>Travelers bound for Medenine, Tunisia can use the services of Gare Routiere. It is a bus station with a 2.5-star rating on Google. To get there, just follow the coordinates 33.3604811, 10.4686472.</t>
         </is>
       </c>
     </row>
@@ -7466,9 +7426,8 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something fun to do, check out Station de louage et bus located at 9F69+9PV Station de louage et bus, Medenine. 
-This top-rated destination is perfect for Guichet de gare lovers and offers a range of Guichet de gare to choose from. 
-With a rating of 2.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.34644, 10.4907083. For more details, visit their website at https://www.google.com/maps/place/Station+de+louage+et+bus/data=!4m7!3m6!1s0x1255291e7a0c3283:0x5aaa4f3f2f4ee9e8!8m2!3d33.3605999!4d10.4687594!16s%2Fg%2F11rzq00g_r!19sChIJgzIMeh4pVRIR6OlOLz9Pqlo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Station de louage et bus**
+The Station de louage et bus provides transportation services to travelers. It offers a ticket office and bus travel options. The station is located at 9F69+9PV Medenine, Tunisia. It ranks 2.3 out of 5 based on 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -7563,11 +7522,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a reliable taxi rank, check out mHT@ lnql lryfy at 8FWV+WV3. 
-This highly-rated spot is the perfect choice for those in need of a taxi service. 
-With a rating of 4.2, it's a must-visit spot.
-To get there, use these GPS coordinates: 33.3497059, 10.4863079.
-For more details, visit their website at https://djerba--hotel.blogspot.com/p/taxi-rank.html or call them at the provided phone number.</t>
+          <t>mHT@ lnql lryfy is a taxi rank located in medenine (lat:33.3497059, lon: 10.4863079). It has 4.2 of rating from 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -7658,9 +7613,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for transportation services, check out Central Louage Station located at 8FVQ+722 Central Louage Station. 
-This top-rated destination is perfect for transportation service lovers and offers a range of transportation services to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Central+Louage+Station/data=!4m7!3m6!1s0x1254d62daa16a0d7:0xffb98f4902662d21!8m2!3d33.3431253!4d10.487504!16s%2Fg%2F11hbntz8l3!19sChIJ16AWqi3WVBIRIS1mAkmPuf8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Central Louage Station, located in Medenine (coordinates: 33.34644, 10.4907083), is a service station offering transportation services. It has received 3 reviews and holds a rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -7755,8 +7708,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a place to catch a bus, check out Medenine Centre located at Medenine Centre, Medenine. 
-This highly-rated public transit stop has a rating of 4.0, making it a great option for travelers. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Medenine+Centre/data=!4m7!3m6!1s0x1254d62bff96971b:0x6e8914c0499cbeb1!8m2!3d33.34603!4d10.490132!16s%2Fg%2F11jg82j5yt!19sChIJG5eW_yvWVBIRsb6cScAUiW4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Medenine Centre is a bus stop located in Medenine, Tunisia. It is a popular spot for locals and tourists alike, offering a convenient and affordable way to get around the city. The bus stop is located at (33.3497059, 10.4863079) and has two reviews, with an average rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7799,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in Medenine and looking for a transportation option, check out Gare Des Bus located at 8FWR+G2C. This top-rated destination is perfect for transportation lovers and offers a range of services to choose from. With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>Gare Des Bus is a bus station located in Medenine, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surrounding areas. The station offers a range of bus services, making it an accessible and affordable option for travelers. With its convenient location, Gare Des Bus is a popular choice for both locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7890,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for a Station-service, check out Station du Transport Rural Medenine Nord located at 8FXP+VRJ Station du Transport Rural Medenine Nord, Medenine. This top-rated destination is perfect for Station-service lovers and offers a range of categories to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3540965, 10.5384992. For more details, visit their website at https://www.google.com/maps/place/Station+du+Transport+Rural+Medenine+Nord/</t>
+          <t>The Station du Transport Rural Medenine Nord is a gas station located in Medenine, Tunisia. It is situated at the coordinates (33.3540965, 10.5384992).</t>
         </is>
       </c>
     </row>
@@ -8033,7 +7985,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in medenine and looking for something related to Service de transport, check out mHT@ llwj mdnyn located at 8FWR+QG3 mHT@ llwj mdnyn. This top-rated destination is perfect for Service de transport lovers. With a rating of 3.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.3497059, 10.4863079.</t>
+          <t>mHT@ llwj mdnyn is a transportation service located in Medenine, Tunisia. It is situated at coordinates (33.3497059, 10.4863079) and offers 24/7 availability. Despite having only one review, it maintains a 3.0 rating and falls under the main category of transportation service.</t>
         </is>
       </c>
     </row>
